--- a/planilhas/spendwise-planilha.xlsx
+++ b/planilhas/spendwise-planilha.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C778B7DC-F11A-489E-9638-ACCE4DFD1644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59F5897E-7EAF-489F-AA69-FDAD2DED9E4A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
-    <t xml:space="preserve">data </t>
+    <t>data</t>
   </si>
   <si>
     <t>descrição</t>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">Lazer </t>
   </si>
   <si>
-    <t>Saída</t>
+    <t>OUTPUT</t>
   </si>
   <si>
     <t>Pagamento mensal</t>
@@ -63,7 +63,7 @@
     <t>Salário</t>
   </si>
   <si>
-    <t>Entrada</t>
+    <t>INPUT</t>
   </si>
   <si>
     <t>Ações Brasileiras</t>
@@ -89,8 +89,16 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -118,10 +126,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,14 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="H8:L13"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -471,107 +481,110 @@
     <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="8:12">
-      <c r="H8" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I8" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L8" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="8:12">
-      <c r="H9" s="1">
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
         <v>45881</v>
       </c>
-      <c r="I9" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="J9" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="2">
+      <c r="D2" s="2">
         <v>900</v>
       </c>
-      <c r="L9" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="8:12">
-      <c r="H10" s="1">
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
         <v>45892</v>
       </c>
-      <c r="I10" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="J10" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="2">
+      <c r="D3" s="2">
         <v>1855</v>
       </c>
-      <c r="L10" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="8:12">
-      <c r="H11" s="1">
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
         <v>45890</v>
       </c>
-      <c r="I11" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="2">
+      <c r="D4" s="2">
         <v>355</v>
       </c>
-      <c r="L11" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="8:12">
-      <c r="H12" s="1">
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
         <v>45893</v>
       </c>
-      <c r="I12" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="J12" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="2">
+      <c r="D5" s="2">
         <v>1000</v>
       </c>
-      <c r="L12" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="8:12">
-      <c r="H13" s="1">
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
         <v>45898</v>
       </c>
-      <c r="I13" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="J13" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="2">
+      <c r="D6" s="2">
         <v>1500</v>
       </c>
-      <c r="L13" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="J11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
